--- a/build/data/complexity blog.xlsx
+++ b/build/data/complexity blog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brookingsinstitution.sharepoint.com/sites/MetroResearch/JParilla/Complexity/graphics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sliu\The Brookings Institution\Metro Research - JParilla\Complexity\graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{10FCE85D-DADC-466D-ACB5-49A74B737931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{F79ED980-9BEA-42BB-9126-C816F95C00E0}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{10FCE85D-DADC-466D-ACB5-49A74B737931}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{291DFC75-B044-4496-87EA-4B76CD476803}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="225" windowWidth="18195" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="225" windowWidth="18195" windowHeight="10890" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tip Sheet" sheetId="15" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="map 1" sheetId="18" r:id="rId3"/>
     <sheet name="chart 1" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table 1'!$B$5:$F$5</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="147">
   <si>
     <t>Title</t>
   </si>
@@ -95,18 +98,12 @@
     <t>Miami</t>
   </si>
   <si>
-    <t>Ames, IA</t>
-  </si>
-  <si>
     <t>San Diego</t>
   </si>
   <si>
     <t>Atlanta</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Denver</t>
   </si>
   <si>
@@ -116,33 +113,12 @@
     <t>Philadelphia</t>
   </si>
   <si>
-    <t>Portland</t>
-  </si>
-  <si>
     <t>Phoenix</t>
   </si>
   <si>
     <t>Boulder, CO</t>
   </si>
   <si>
-    <t>Las Vegas</t>
-  </si>
-  <si>
-    <r>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Share of companies in our Crunchbase sample</t>
   </si>
   <si>
@@ -177,16 +153,338 @@
   </si>
   <si>
     <t xml:space="preserve">Correlation coefficients between </t>
+  </si>
+  <si>
+    <t>cbsa_code</t>
+  </si>
+  <si>
+    <t>cbsa_name</t>
+  </si>
+  <si>
+    <t>pc_firms</t>
+  </si>
+  <si>
+    <t>SCI_adjusted</t>
+  </si>
+  <si>
+    <t>San Francisco-Oakland-Berkeley, CA</t>
+  </si>
+  <si>
+    <t>New York-Newark-Jersey City, NY-NJ-PA</t>
+  </si>
+  <si>
+    <t>Los Angeles-Long Beach-Anaheim, CA</t>
+  </si>
+  <si>
+    <t>San Jose-Sunnyvale-Santa Clara, CA</t>
+  </si>
+  <si>
+    <t>Boston-Cambridge-Newton, MA-NH</t>
+  </si>
+  <si>
+    <t>Chicago-Naperville-Elgin, IL-IN-WI</t>
+  </si>
+  <si>
+    <t>Seattle-Tacoma-Bellevue, WA</t>
+  </si>
+  <si>
+    <t>Austin-Round Rock-Georgetown, TX</t>
+  </si>
+  <si>
+    <t>San Diego-Chula Vista-Carlsbad, CA</t>
+  </si>
+  <si>
+    <t>Miami-Fort Lauderdale-Pompano Beach, FL</t>
+  </si>
+  <si>
+    <t>Atlanta-Sandy Springs-Alpharetta, GA</t>
+  </si>
+  <si>
+    <t>Denver-Aurora-Lakewood, CO</t>
+  </si>
+  <si>
+    <t>Washington-Arlington-Alexandria, DC-VA-MD-WV</t>
+  </si>
+  <si>
+    <t>Dallas-Fort Worth-Arlington, TX</t>
+  </si>
+  <si>
+    <t>Philadelphia-Camden-Wilmington, PA-NJ-DE-MD</t>
+  </si>
+  <si>
+    <t>Phoenix-Mesa-Chandler, AZ</t>
+  </si>
+  <si>
+    <t>Portland-Vancouver-Hillsboro, OR-WA</t>
+  </si>
+  <si>
+    <t>Houston-The Woodlands-Sugar Land, TX</t>
+  </si>
+  <si>
+    <t>Minneapolis-St. Paul-Bloomington, MN-WI</t>
+  </si>
+  <si>
+    <t>Las Vegas-Henderson-Paradise, NV</t>
+  </si>
+  <si>
+    <t>Raleigh-Cary, NC</t>
+  </si>
+  <si>
+    <t>Nashville-Davidson--Murfreesboro--Franklin, TN</t>
+  </si>
+  <si>
+    <t>Pittsburgh, PA</t>
+  </si>
+  <si>
+    <t>Columbus, OH</t>
+  </si>
+  <si>
+    <t>Cincinnati, OH-KY-IN</t>
+  </si>
+  <si>
+    <t>Salt Lake City, UT</t>
+  </si>
+  <si>
+    <t>Provo-Orem, UT</t>
+  </si>
+  <si>
+    <t>Tampa-St. Petersburg-Clearwater, FL</t>
+  </si>
+  <si>
+    <t>Baltimore-Columbia-Towson, MD</t>
+  </si>
+  <si>
+    <t>Detroit-Warren-Dearborn, MI</t>
+  </si>
+  <si>
+    <t>Santa Rosa-Petaluma, CA</t>
+  </si>
+  <si>
+    <t>Kansas City, MO-KS</t>
+  </si>
+  <si>
+    <t>Charlotte-Concord-Gastonia, NC-SC</t>
+  </si>
+  <si>
+    <t>Manchester-Nashua, NH</t>
+  </si>
+  <si>
+    <t>Durham-Chapel Hill, NC</t>
+  </si>
+  <si>
+    <t>Cleveland-Elyria, OH</t>
+  </si>
+  <si>
+    <t>Orlando-Kissimmee-Sanford, FL</t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>Fayetteville-Springdale-Rogers, AR</t>
+  </si>
+  <si>
+    <t>Ann Arbor, MI</t>
+  </si>
+  <si>
+    <t>Indianapolis-Carmel-Anderson, IN</t>
+  </si>
+  <si>
+    <t>Sacramento-Roseville-Folsom, CA</t>
+  </si>
+  <si>
+    <t>Bend, OR</t>
+  </si>
+  <si>
+    <t>Portland-South Portland, ME</t>
+  </si>
+  <si>
+    <t>Bridgeport-Stamford-Norwalk, CT</t>
+  </si>
+  <si>
+    <t>San Antonio-New Braunfels, TX</t>
+  </si>
+  <si>
+    <t>Bakersfield, CA</t>
+  </si>
+  <si>
+    <t>Oklahoma City, OK</t>
+  </si>
+  <si>
+    <t>Lincoln, NE</t>
+  </si>
+  <si>
+    <t>Milwaukee-Waukesha, WI</t>
+  </si>
+  <si>
+    <t>Des Moines-West Des Moines, IA</t>
+  </si>
+  <si>
+    <t>Providence-Warwick, RI-MA</t>
+  </si>
+  <si>
+    <t>Dover, DE</t>
+  </si>
+  <si>
+    <t>Buffalo-Cheektowaga, NY</t>
+  </si>
+  <si>
+    <t>Santa Maria-Santa Barbara, CA</t>
+  </si>
+  <si>
+    <t>Charlottesville, VA</t>
+  </si>
+  <si>
+    <t>Fort Collins, CO</t>
+  </si>
+  <si>
+    <t>Grand Rapids-Kentwood, MI</t>
+  </si>
+  <si>
+    <t>Memphis, TN-MS-AR</t>
+  </si>
+  <si>
+    <t>Reno, NV</t>
+  </si>
+  <si>
+    <t>Little Rock-North Little Rock-Conway, AR</t>
+  </si>
+  <si>
+    <t>Charleston-North Charleston, SC</t>
+  </si>
+  <si>
+    <t>Albuquerque, NM</t>
+  </si>
+  <si>
+    <t>New Haven-Milford, CT</t>
+  </si>
+  <si>
+    <t>Poughkeepsie-Newburgh-Middletown, NY</t>
+  </si>
+  <si>
+    <t>Riverside-San Bernardino-Ontario, CA</t>
+  </si>
+  <si>
+    <t>Trenton-Princeton, NJ</t>
+  </si>
+  <si>
+    <t>St. Louis, MO-IL</t>
+  </si>
+  <si>
+    <t>Ithaca, NY</t>
+  </si>
+  <si>
+    <t>Rochester, MN</t>
+  </si>
+  <si>
+    <t>Birmingham-Hoover, AL</t>
+  </si>
+  <si>
+    <t>Richmond, VA</t>
+  </si>
+  <si>
+    <t>North Port-Sarasota-Bradenton, FL</t>
+  </si>
+  <si>
+    <t>Oxnard-Thousand Oaks-Ventura, CA</t>
+  </si>
+  <si>
+    <t>Iowa City, IA</t>
+  </si>
+  <si>
+    <t>Gainesville, FL</t>
+  </si>
+  <si>
+    <t>Santa Cruz-Watsonville, CA</t>
+  </si>
+  <si>
+    <t>Worcester, MA-CT</t>
+  </si>
+  <si>
+    <t>Greenville-Anderson, SC</t>
+  </si>
+  <si>
+    <t>Chattanooga, TN-GA</t>
+  </si>
+  <si>
+    <t>Knoxville, TN</t>
+  </si>
+  <si>
+    <t>New Orleans-Metairie, LA</t>
+  </si>
+  <si>
+    <t>Rochester, NY</t>
+  </si>
+  <si>
+    <t>Colorado Springs, CO</t>
+  </si>
+  <si>
+    <t>Omaha-Council Bluffs, NE-IA</t>
+  </si>
+  <si>
+    <t>Allentown-Bethlehem-Easton, PA-NJ</t>
+  </si>
+  <si>
+    <t>Champaign-Urbana, IL</t>
+  </si>
+  <si>
+    <t>Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Louisville/Jefferson County, KY-IN</t>
+  </si>
+  <si>
+    <t>Tucson, AZ</t>
+  </si>
+  <si>
+    <t>Akron, OH</t>
+  </si>
+  <si>
+    <t>Blacksburg-Christiansburg, VA</t>
+  </si>
+  <si>
+    <t>Bozeman, MT</t>
+  </si>
+  <si>
+    <t>Heber, UT</t>
+  </si>
+  <si>
+    <t>Salisbury, MD-DE</t>
+  </si>
+  <si>
+    <t>Syracuse, NY</t>
+  </si>
+  <si>
+    <t>Virginia Beach-Norfolk-Newport News, VA-NC</t>
+  </si>
+  <si>
+    <t>Wilmington, NC</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Portland, Ore.</t>
+  </si>
+  <si>
+    <t>Boulder, Colo.</t>
+  </si>
+  <si>
+    <t>Minneapolis, Minn.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,14 +569,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,21 +578,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -331,7 +612,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,34 +633,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,13 +807,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.39</c:v>
+                  <c:v>0.4291026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.39605950000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.31375530000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,13 +901,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0.67668550000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.52167859999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.61684090000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,13 +978,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7300565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.59785730000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68</c:v>
+                  <c:v>0.71569389999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,44 +1451,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>360521</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>75127</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68F2D79-D54A-4E68-9C07-991499BB1D74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B57A784-CBDA-40BE-8226-C1B063A5CDD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1819275" y="1162050"/>
-          <a:ext cx="5943600" cy="4457700"/>
+          <a:off x="3778250" y="1028699"/>
+          <a:ext cx="7555071" cy="5666303"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1874,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +2173,7 @@
       <c r="B1" s="8"/>
       <c r="C1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F1" s="9"/>
     </row>
@@ -1915,19 +2197,19 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1935,351 +2217,352 @@
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="21">
         <v>100</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16">
-        <v>0.185</v>
+      <c r="E6" s="15">
+        <v>0.24399999999999999</v>
       </c>
       <c r="F6" s="11">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
-        <v>96.7</v>
+      <c r="C7" s="21">
+        <v>96.151203910000007</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16">
-        <v>0.128</v>
+      <c r="E7" s="15">
+        <v>0.16300000000000001</v>
       </c>
       <c r="F7" s="11">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="11">
-        <v>90.9</v>
+      <c r="C8" s="21">
+        <v>87.698924340000005</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="16">
-        <v>7.2999999999999995E-2</v>
+      <c r="E8" s="15">
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F8" s="11">
-        <v>246</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="11">
-        <v>88.2</v>
+      <c r="C9" s="21">
+        <v>84.525284220000003</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="16">
-        <v>7.1999999999999995E-2</v>
+      <c r="E9" s="15">
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="F9" s="11">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="11">
-        <v>81.7</v>
+      <c r="C10" s="21">
+        <v>78.633603590000007</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16">
-        <v>5.1999999999999998E-2</v>
+      <c r="E10" s="15">
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F10" s="11">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>6</v>
       </c>
-      <c r="C11" s="11">
-        <v>72.400000000000006</v>
+      <c r="C11" s="21">
+        <v>67.898420439999995</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="16">
-        <v>2.8000000000000001E-2</v>
+      <c r="E11" s="15">
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="F11" s="11">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>7</v>
       </c>
-      <c r="C12" s="11">
-        <v>66.5</v>
+      <c r="C12" s="21">
+        <v>64.033239190000003</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="16">
-        <v>2.7E-2</v>
+      <c r="E12" s="15">
+        <v>2.86E-2</v>
       </c>
       <c r="F12" s="11">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="11">
-        <v>66.2</v>
+      <c r="C13" s="21">
+        <v>60.50729982</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16">
-        <v>2.1999999999999999E-2</v>
+      <c r="E13" s="15">
+        <v>2.35E-2</v>
       </c>
       <c r="F13" s="11">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>9</v>
       </c>
-      <c r="C14" s="11">
-        <v>61.8</v>
+      <c r="C14" s="21">
+        <v>57.592270650000003</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1.7000000000000001E-2</v>
+        <v>21</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="F14" s="11">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>10</v>
       </c>
-      <c r="C15" s="11">
-        <v>60.8</v>
+      <c r="C15" s="21">
+        <v>56.138954150000004</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1.54E-2</v>
       </c>
       <c r="F15" s="11">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>11</v>
       </c>
-      <c r="C16" s="11">
-        <v>60.8</v>
+      <c r="C16" s="21">
+        <v>52.65436536</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="16">
-        <v>0.02</v>
+      <c r="E16" s="15">
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="F16" s="11">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>12</v>
       </c>
-      <c r="C17" s="11">
-        <v>59.8</v>
+      <c r="C17" s="21">
+        <v>50.731618400000002</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="16">
-        <v>1.6E-2</v>
+      <c r="E17" s="15">
+        <v>1.38E-2</v>
       </c>
       <c r="F17" s="11">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>13</v>
       </c>
-      <c r="C18" s="11">
-        <v>58.9</v>
+      <c r="C18" s="21">
+        <v>50.430581449999998</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="16">
-        <v>1.4999999999999999E-2</v>
+        <v>143</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="F18" s="11">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>14</v>
       </c>
-      <c r="C19" s="11">
-        <v>56.6</v>
+      <c r="C19" s="21">
+        <v>49.784223439999998</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1.4999999999999999E-2</v>
+        <v>24</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="F19" s="11">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>15</v>
       </c>
-      <c r="C20" s="11">
-        <v>54.4</v>
+      <c r="C20" s="21">
+        <v>46.065209459999998</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="16">
-        <v>1.6E-2</v>
+        <v>25</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1.17E-2</v>
       </c>
       <c r="F20" s="11">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>16</v>
       </c>
-      <c r="C21" s="11">
-        <v>53.1</v>
+      <c r="C21" s="21">
+        <v>41.640739140000001</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1.4E-2</v>
+        <v>26</v>
+      </c>
+      <c r="E21" s="15">
+        <v>7.0299999999999998E-3</v>
       </c>
       <c r="F21" s="11">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>17</v>
       </c>
-      <c r="C22" s="11">
-        <v>50.3</v>
+      <c r="C22" s="21">
+        <v>41.513502709999997</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="16">
-        <v>8.9999999999999993E-3</v>
+        <v>144</v>
+      </c>
+      <c r="E22" s="15">
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="F22" s="11">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>18</v>
       </c>
-      <c r="C23" s="11">
-        <v>47.6</v>
+      <c r="C23" s="21">
+        <v>40.301982289999998</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="16">
-        <v>8.9999999999999993E-3</v>
+        <v>145</v>
+      </c>
+      <c r="E23" s="15">
+        <v>6.6100000000000004E-3</v>
       </c>
       <c r="F23" s="11">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>19</v>
       </c>
-      <c r="C24" s="11">
-        <v>46.6</v>
+      <c r="C24" s="21">
+        <v>40.144376749999999</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="16">
-        <v>8.0000000000000002E-3</v>
+        <v>142</v>
+      </c>
+      <c r="E24" s="15">
+        <v>6.9499999999999996E-3</v>
       </c>
       <c r="F24" s="11">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12">
+      <c r="B25" s="23">
         <v>20</v>
       </c>
-      <c r="C25" s="13">
-        <v>45.7</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>32</v>
+      <c r="C25" s="22">
+        <v>38.429771619999997</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="16">
+        <v>5.5100000000000001E-3</v>
+      </c>
+      <c r="F25" s="12">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B5:F5" xr:uid="{B7AF0814-6A01-41F3-AC59-139DF6C33689}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -2287,27 +2570,1734 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A36D540-EEF7-4180-BE81-907C2436D175}">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:E108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>41860</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="24">
+        <v>4.1972760679999999</v>
+      </c>
+      <c r="E10" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>35620</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.66568696500000002</v>
+      </c>
+      <c r="E11" s="20">
+        <v>96.151203910000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>31080</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.52309166600000001</v>
+      </c>
+      <c r="E12" s="20">
+        <v>87.698924340000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>41940</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="24">
+        <v>3.7250678590000001</v>
+      </c>
+      <c r="E13" s="20">
+        <v>84.525284220000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>14460</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.96878918700000005</v>
+      </c>
+      <c r="E14" s="20">
+        <v>78.633603590000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>16980</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.249758384</v>
+      </c>
+      <c r="E15" s="20">
+        <v>67.898420439999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>42660</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.61067418900000003</v>
+      </c>
+      <c r="E16" s="20">
+        <v>64.033239190000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>12420</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.93472425599999998</v>
+      </c>
+      <c r="E17" s="20">
+        <v>60.50729982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>41740</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.474774376</v>
+      </c>
+      <c r="E18" s="20">
+        <v>57.592270650000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>33100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.20449218299999999</v>
+      </c>
+      <c r="E19" s="20">
+        <v>56.138954150000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>12060</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.20663077799999999</v>
+      </c>
+      <c r="E20" s="20">
+        <v>52.65436536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>19740</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.39375649400000001</v>
+      </c>
+      <c r="E21" s="20">
+        <v>50.731618400000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>47900</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.17384026799999999</v>
+      </c>
+      <c r="E22" s="20">
+        <v>50.430581449999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>19100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.157662683</v>
+      </c>
+      <c r="E23" s="20">
+        <v>49.784223439999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>37980</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.153652275</v>
+      </c>
+      <c r="E24" s="20">
+        <v>46.065209459999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>38060</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.122779069</v>
+      </c>
+      <c r="E25" s="20">
+        <v>41.640739140000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>38900</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.21997979000000001</v>
+      </c>
+      <c r="E26" s="20">
+        <v>41.513502709999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>14500</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1.663604624</v>
+      </c>
+      <c r="E27" s="20">
+        <v>40.301982289999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>26420</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="24">
+        <v>8.3481410000000006E-2</v>
+      </c>
+      <c r="E28" s="20">
+        <v>40.144376749999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>33460</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0.125026308</v>
+      </c>
+      <c r="E29" s="20">
+        <v>38.429771619999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>29820</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.10367178000000001</v>
+      </c>
+      <c r="E30" s="20">
+        <v>37.019186830000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>39580</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.19780452700000001</v>
+      </c>
+      <c r="E31" s="20">
+        <v>35.996179560000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>34980</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.17553496599999999</v>
+      </c>
+      <c r="E32" s="20">
+        <v>35.523701729999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>38300</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0.16395935</v>
+      </c>
+      <c r="E33" s="20">
+        <v>34.379563419999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>18140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0.12600713099999999</v>
+      </c>
+      <c r="E34" s="20">
+        <v>31.8771369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>17140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="24">
+        <v>9.4055766999999998E-2</v>
+      </c>
+      <c r="E35" s="20">
+        <v>31.761089160000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>41620</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0.20426355299999999</v>
+      </c>
+      <c r="E36" s="20">
+        <v>31.62618646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>39340</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0.35422946599999999</v>
+      </c>
+      <c r="E37" s="20">
+        <v>31.488476389999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>45300</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="24">
+        <v>7.2191037999999999E-2</v>
+      </c>
+      <c r="E38" s="20">
+        <v>31.34719969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>12580</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="24">
+        <v>0.11031321099999999</v>
+      </c>
+      <c r="E39" s="20">
+        <v>31.10585171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>19820</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="24">
+        <v>3.6240191999999997E-2</v>
+      </c>
+      <c r="E40" s="20">
+        <v>30.1111173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>42220</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="24">
+        <v>3.3935997000000002E-2</v>
+      </c>
+      <c r="E41" s="20">
+        <v>29.503087409999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <v>28140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="24">
+        <v>7.9470324999999994E-2</v>
+      </c>
+      <c r="E42" s="20">
+        <v>29.402052350000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>16740</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="24">
+        <v>8.0324396000000006E-2</v>
+      </c>
+      <c r="E43" s="20">
+        <v>29.295663510000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>31700</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="24">
+        <v>3.4451277000000002E-2</v>
+      </c>
+      <c r="E44" s="20">
+        <v>27.367408390000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
+      <c r="B45">
+        <v>20500</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0.34823516999999998</v>
+      </c>
+      <c r="E45" s="20">
+        <v>27.336384500000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>17460</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="24">
+        <v>7.7565829000000003E-2</v>
+      </c>
+      <c r="E46" s="20">
+        <v>26.639220009999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>36740</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="24">
+        <v>5.1864203999999997E-2</v>
+      </c>
+      <c r="E47" s="20">
+        <v>26.63916515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>31540</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="24">
+        <v>0.28590533600000001</v>
+      </c>
+      <c r="E48" s="20">
+        <v>26.32754401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49">
+        <v>22220</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="24">
+        <v>8.1397929999999993E-3</v>
+      </c>
+      <c r="E49" s="20">
+        <v>26.324814270000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>41</v>
+      </c>
+      <c r="B50">
+        <v>11460</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="24">
+        <v>0.33470812599999999</v>
+      </c>
+      <c r="E50" s="20">
+        <v>26.076033819999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>42</v>
+      </c>
+      <c r="B51">
+        <v>26900</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="24">
+        <v>8.5468710000000003E-2</v>
+      </c>
+      <c r="E51" s="20">
+        <v>25.81439516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>40900</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="24">
+        <v>4.0123368E-2</v>
+      </c>
+      <c r="E52" s="20">
+        <v>24.744339449999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>13460</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="24">
+        <v>4.5630586000000001E-2</v>
+      </c>
+      <c r="E53" s="20">
+        <v>24.601949189999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>38860</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="24">
+        <v>1.7117555999999999E-2</v>
+      </c>
+      <c r="E54" s="20">
+        <v>24.601949189999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>14860</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="24">
+        <v>8.7614848999999995E-2</v>
+      </c>
+      <c r="E55" s="20">
+        <v>24.28385437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>47</v>
+      </c>
+      <c r="B56">
+        <v>41700</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="24">
+        <v>3.112504E-2</v>
+      </c>
+      <c r="E56" s="20">
+        <v>23.79984494</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>48</v>
+      </c>
+      <c r="B57">
+        <v>12540</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="24">
+        <v>3.1863660000000002E-2</v>
+      </c>
+      <c r="E57" s="20">
+        <v>23.67723033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>49</v>
+      </c>
+      <c r="B58">
+        <v>36420</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="24">
+        <v>1.9948223000000001E-2</v>
+      </c>
+      <c r="E58" s="20">
+        <v>23.667113579999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>50</v>
+      </c>
+      <c r="B59">
+        <v>30700</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="24">
+        <v>5.8750410000000003E-2</v>
+      </c>
+      <c r="E59" s="20">
+        <v>23.566125849999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>51</v>
+      </c>
+      <c r="B60">
+        <v>33340</v>
+      </c>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="24">
+        <v>5.2060153999999997E-2</v>
+      </c>
+      <c r="E60" s="20">
+        <v>23.562718889999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>52</v>
+      </c>
+      <c r="B61">
+        <v>19780</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="24">
+        <v>3.6369037E-2</v>
+      </c>
+      <c r="E61" s="20">
+        <v>23.066435269999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>53</v>
+      </c>
+      <c r="B62">
+        <v>39300</v>
+      </c>
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="24">
+        <v>9.2985540000000005E-3</v>
+      </c>
+      <c r="E62" s="20">
+        <v>22.526698719999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>54</v>
+      </c>
+      <c r="B63">
+        <v>20100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="24">
+        <v>6.9306072999999996E-2</v>
+      </c>
+      <c r="E63" s="20">
+        <v>22.479794439999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>55</v>
+      </c>
+      <c r="B64">
+        <v>15380</v>
+      </c>
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="24">
+        <v>2.7272647000000001E-2</v>
+      </c>
+      <c r="E64" s="20">
+        <v>22.289287309999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>56</v>
+      </c>
+      <c r="B65">
+        <v>42200</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="24">
+        <v>0.14447082999999999</v>
+      </c>
+      <c r="E65" s="20">
+        <v>21.773315749999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>57</v>
+      </c>
+      <c r="B66">
+        <v>16820</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="24">
+        <v>0.217209612</v>
+      </c>
+      <c r="E66" s="20">
+        <v>21.734717119999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>58</v>
+      </c>
+      <c r="B67">
+        <v>22660</v>
+      </c>
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="24">
+        <v>2.4170937E-2</v>
+      </c>
+      <c r="E67" s="20">
+        <v>20.968117500000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>59</v>
+      </c>
+      <c r="B68">
+        <v>24340</v>
+      </c>
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="24">
+        <v>9.5810949999999995E-3</v>
+      </c>
+      <c r="E68" s="20">
+        <v>20.691456989999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>60</v>
+      </c>
+      <c r="B69">
+        <v>32820</v>
+      </c>
+      <c r="C69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="24">
+        <v>3.8929381999999998E-2</v>
+      </c>
+      <c r="E69" s="20">
+        <v>20.476743970000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>61</v>
+      </c>
+      <c r="B70">
+        <v>39900</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="24">
+        <v>2.8924755999999999E-2</v>
+      </c>
+      <c r="E70" s="20">
+        <v>19.992666580000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>62</v>
+      </c>
+      <c r="B71">
+        <v>30780</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="24">
+        <v>2.0538211000000001E-2</v>
+      </c>
+      <c r="E71" s="20">
+        <v>19.852599009999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>63</v>
+      </c>
+      <c r="B72">
+        <v>16700</v>
+      </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="24">
+        <v>6.1811756000000002E-2</v>
+      </c>
+      <c r="E72" s="20">
+        <v>19.700299650000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>64</v>
+      </c>
+      <c r="B73">
+        <v>10740</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="24">
+        <v>2.2098250999999999E-2</v>
+      </c>
+      <c r="E73" s="20">
+        <v>19.688572000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>65</v>
+      </c>
+      <c r="B74">
+        <v>35300</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="24">
+        <v>5.1036564E-2</v>
+      </c>
+      <c r="E74" s="20">
+        <v>18.989361259999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>66</v>
+      </c>
+      <c r="B75">
+        <v>39100</v>
+      </c>
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="24">
+        <v>1.1871919999999999E-2</v>
+      </c>
+      <c r="E75" s="20">
+        <v>18.914624310000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>67</v>
+      </c>
+      <c r="B76">
+        <v>40140</v>
+      </c>
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="24">
+        <v>5.8084699999999996E-3</v>
+      </c>
+      <c r="E76" s="20">
+        <v>18.7811737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>68</v>
+      </c>
+      <c r="B77">
+        <v>45940</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="24">
+        <v>7.2315876000000001E-2</v>
+      </c>
+      <c r="E77" s="20">
+        <v>18.29928619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>69</v>
+      </c>
+      <c r="B78">
+        <v>41180</v>
+      </c>
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="24">
+        <v>1.0695194999999999E-2</v>
+      </c>
+      <c r="E78" s="20">
+        <v>18.238383150000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>70</v>
+      </c>
+      <c r="B79">
+        <v>27060</v>
+      </c>
+      <c r="C79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="24">
+        <v>3.8308672000000002E-2</v>
+      </c>
+      <c r="E79" s="20">
+        <v>17.776018870000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>71</v>
+      </c>
+      <c r="B80">
+        <v>40340</v>
+      </c>
+      <c r="C80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="24">
+        <v>1.8649322999999999E-2</v>
+      </c>
+      <c r="E80" s="20">
+        <v>17.776018870000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>72</v>
+      </c>
+      <c r="B81">
+        <v>13820</v>
+      </c>
+      <c r="C81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="24">
+        <v>3.8918798999999997E-2</v>
+      </c>
+      <c r="E81" s="20">
+        <v>17.643073220000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>73</v>
+      </c>
+      <c r="B82">
+        <v>40060</v>
+      </c>
+      <c r="C82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="24">
+        <v>2.0042956000000001E-2</v>
+      </c>
+      <c r="E82" s="20">
+        <v>16.893031279999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>74</v>
+      </c>
+      <c r="B83">
+        <v>35840</v>
+      </c>
+      <c r="C83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="24">
+        <v>1.5617252E-2</v>
+      </c>
+      <c r="E83" s="20">
+        <v>16.567504450000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>75</v>
+      </c>
+      <c r="B84">
+        <v>37100</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="24">
+        <v>2.1230571E-2</v>
+      </c>
+      <c r="E84" s="20">
+        <v>16.513866629999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>76</v>
+      </c>
+      <c r="B85">
+        <v>26980</v>
+      </c>
+      <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" s="24">
+        <v>7.2063416000000005E-2</v>
+      </c>
+      <c r="E85" s="20">
+        <v>16.075100599999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>77</v>
+      </c>
+      <c r="B86">
+        <v>23540</v>
+      </c>
+      <c r="C86" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="24">
+        <v>6.6294365999999993E-2</v>
+      </c>
+      <c r="E86" s="20">
+        <v>15.66855262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>78</v>
+      </c>
+      <c r="B87">
+        <v>42100</v>
+      </c>
+      <c r="C87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="24">
+        <v>4.3913739E-2</v>
+      </c>
+      <c r="E87" s="20">
+        <v>15.50481119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>79</v>
+      </c>
+      <c r="B88">
+        <v>49340</v>
+      </c>
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" s="24">
+        <v>1.6044102000000001E-2</v>
+      </c>
+      <c r="E88" s="20">
+        <v>15.098940969999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>80</v>
+      </c>
+      <c r="B89">
+        <v>24860</v>
+      </c>
+      <c r="C89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="24">
+        <v>1.8338887000000002E-2</v>
+      </c>
+      <c r="E89" s="20">
+        <v>15.098940969999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>81</v>
+      </c>
+      <c r="B90">
+        <v>16860</v>
+      </c>
+      <c r="C90" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="24">
+        <v>3.4648834000000003E-2</v>
+      </c>
+      <c r="E90" s="20">
+        <v>14.722181580000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>82</v>
+      </c>
+      <c r="B91">
+        <v>28940</v>
+      </c>
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="24">
+        <v>1.9057873999999999E-2</v>
+      </c>
+      <c r="E91" s="20">
+        <v>14.56019365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>83</v>
+      </c>
+      <c r="B92">
+        <v>35380</v>
+      </c>
+      <c r="C92" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="24">
+        <v>6.3458819999999997E-3</v>
+      </c>
+      <c r="E92" s="20">
+        <v>14.163069520000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>84</v>
+      </c>
+      <c r="B93">
+        <v>40380</v>
+      </c>
+      <c r="C93" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="24">
+        <v>1.7581962E-2</v>
+      </c>
+      <c r="E93" s="20">
+        <v>13.991103880000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>85</v>
+      </c>
+      <c r="B94">
+        <v>17820</v>
+      </c>
+      <c r="C94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="24">
+        <v>1.2883001E-2</v>
+      </c>
+      <c r="E94" s="20">
+        <v>13.69268628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>86</v>
+      </c>
+      <c r="B95">
+        <v>36540</v>
+      </c>
+      <c r="C95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="24">
+        <v>2.0783426000000001E-2</v>
+      </c>
+      <c r="E95" s="20">
+        <v>13.18391156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>87</v>
+      </c>
+      <c r="B96">
+        <v>10900</v>
+      </c>
+      <c r="C96" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="24">
+        <v>6.0039150000000003E-3</v>
+      </c>
+      <c r="E96" s="20">
+        <v>12.166362120000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>88</v>
+      </c>
+      <c r="B97">
+        <v>16580</v>
+      </c>
+      <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="24">
+        <v>2.2283725000000001E-2</v>
+      </c>
+      <c r="E97" s="20">
+        <v>12.166362120000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>89</v>
+      </c>
+      <c r="B98">
+        <v>27260</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="24">
+        <v>2.762652E-3</v>
+      </c>
+      <c r="E98" s="20">
+        <v>12.166362120000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>90</v>
+      </c>
+      <c r="B99">
+        <v>31140</v>
+      </c>
+      <c r="C99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="24">
+        <v>4.0135370000000002E-3</v>
+      </c>
+      <c r="E99" s="20">
+        <v>12.166362120000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>91</v>
+      </c>
+      <c r="B100">
+        <v>46060</v>
+      </c>
+      <c r="C100" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="24">
+        <v>4.9639760000000002E-3</v>
+      </c>
+      <c r="E100" s="20">
+        <v>12.166362120000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>92</v>
+      </c>
+      <c r="B101">
+        <v>10420</v>
+      </c>
+      <c r="C101" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="24">
+        <v>1.1373362E-2</v>
+      </c>
+      <c r="E101" s="20">
+        <v>12.09864638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>93</v>
+      </c>
+      <c r="B102">
+        <v>13980</v>
+      </c>
+      <c r="C102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" s="24">
+        <v>2.4057400999999999E-2</v>
+      </c>
+      <c r="E102" s="20">
+        <v>12.03093065</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>94</v>
+      </c>
+      <c r="B103">
+        <v>14580</v>
+      </c>
+      <c r="C103" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" s="24">
+        <v>3.9708934000000001E-2</v>
+      </c>
+      <c r="E103" s="20">
+        <v>12.03093065</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>95</v>
+      </c>
+      <c r="B104">
+        <v>25720</v>
+      </c>
+      <c r="C104" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="24">
+        <v>5.7939945E-2</v>
+      </c>
+      <c r="E104" s="20">
+        <v>12.03093065</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>96</v>
+      </c>
+      <c r="B105">
+        <v>41540</v>
+      </c>
+      <c r="C105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="24">
+        <v>1.0128504999999999E-2</v>
+      </c>
+      <c r="E105" s="20">
+        <v>12.03093065</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>97</v>
+      </c>
+      <c r="B106">
+        <v>45060</v>
+      </c>
+      <c r="C106" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="24">
+        <v>9.1010859999999996E-3</v>
+      </c>
+      <c r="E106" s="20">
+        <v>12.03093065</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>98</v>
+      </c>
+      <c r="B107">
+        <v>47260</v>
+      </c>
+      <c r="C107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" s="24">
+        <v>2.2798950000000001E-3</v>
+      </c>
+      <c r="E107" s="20">
+        <v>12.03093065</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>99</v>
+      </c>
+      <c r="B108">
+        <v>48900</v>
+      </c>
+      <c r="C108" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="24">
+        <v>2.1621932999999999E-2</v>
+      </c>
+      <c r="E108" s="20">
+        <v>12.03093065</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +4311,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2334,20 +4326,20 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -2355,20 +4347,20 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -2380,52 +4372,52 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="18">
-        <v>0.39</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.67</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.7</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.4291026</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.67668550000000005</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.7300565</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="20">
-        <v>0.39</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.51</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0.52</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.39605950000000001</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.52167859999999999</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.59785730000000004</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="20">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0.61</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.68</v>
+        <v>37</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.31375530000000001</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.61684090000000003</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.71569389999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,7 +4442,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2467,6 +4459,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD91A711D2B4174789C465E8CFAEFFD4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b290e61e6987539a81547eddd28a464">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e746004d-7653-4df5-87d5-f4c0a41e8e9a" xmlns:ns3="8bdebe45-587c-4cf0-9ae0-93c028cb9196" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="417e241872f4773cf9b043993fc4bfd6" ns2:_="" ns3:_="">
     <xsd:import namespace="e746004d-7653-4df5-87d5-f4c0a41e8e9a"/>
@@ -2683,22 +4690,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760C5940-B71F-4B66-A6C3-B5A0FAD7E140}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6039BD03-BB02-4A2A-8CE0-D54F65E07234}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8bdebe45-587c-4cf0-9ae0-93c028cb9196"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e746004d-7653-4df5-87d5-f4c0a41e8e9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4B25159-E6B4-41AC-B5CC-B101BAC25C09}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2715,29 +4732,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6039BD03-BB02-4A2A-8CE0-D54F65E07234}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e746004d-7653-4df5-87d5-f4c0a41e8e9a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8bdebe45-587c-4cf0-9ae0-93c028cb9196"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{760C5940-B71F-4B66-A6C3-B5A0FAD7E140}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>